--- a/qna-maker/data-source-formats/Structured-multi-turn-format.xlsx
+++ b/qna-maker/data-source-formats/Structured-multi-turn-format.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giameh\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FBD51ED2-3861-42E4-8C38-EE3C00597E3C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D09DCEC6-E3DB-4C43-BD95-7C068E3730CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DAAB5F14-A24F-42BD-A7D1-AB5DAA04E0ED}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,6 +26,7 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="19">
   <si>
     <t>Question</t>
   </si>
@@ -62,31 +63,34 @@
     <t>Top Question</t>
   </si>
   <si>
+    <t>Top Answer</t>
+  </si>
+  <si>
+    <t>Editorial</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>[{"displayOrder":0,"qnaId":2,"displayText":"Level 2 Question A"},{"displayOrder":0,"qnaId":3,"displayText":"Level 2 - Question B"}]</t>
+  </si>
+  <si>
     <t>Level 2 Question A</t>
   </si>
   <si>
     <t>Level 2 - Question B</t>
   </si>
   <si>
+    <t>[{"displayOrder":0,"qnaId":4,"displayText":"Level 3 - Question a"},{"displayOrder":0,"qnaId":5,"displayText":"Level 3 - Question b"}]</t>
+  </si>
+  <si>
     <t>Level 3 - Question a</t>
   </si>
   <si>
     <t>Level 3 - Question b</t>
   </si>
   <si>
-    <t>Top Answer</t>
-  </si>
-  <si>
-    <t>Editorial</t>
-  </si>
-  <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>[{"displayOrder":0,"qnaId":2,"displayText":"Level 2 Question A"},{"displayOrder":0,"qnaId":3,"displayText":"Level 2 - Question B"}]</t>
-  </si>
-  <si>
-    <t>[{"displayOrder":0,"qnaId":4,"displayText":"Level 3 - Question a"},{"displayOrder":0,"qnaId":5,"displayText":"Level 3 - Question b"}]</t>
+    <t>Key1:Value1 | Key2:Value2</t>
   </si>
 </sst>
 </file>
@@ -443,13 +447,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6058340-8482-4B22-A3D1-F36087768EB7}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" customWidth="1"/>
     <col min="5" max="5" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="121.85546875" customWidth="1"/>
@@ -487,19 +493,19 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -507,22 +513,22 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H3">
         <v>2</v>
@@ -530,22 +536,22 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H4">
         <v>3</v>
@@ -553,22 +559,22 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H5">
         <v>4</v>
@@ -576,22 +582,25 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H6">
         <v>5</v>
